--- a/xstep_new/report/model - backup.xlsx
+++ b/xstep_new/report/model - backup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7850"/>
+    <workbookView windowWidth="19200" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="RAW_DATA" sheetId="1" r:id="rId1"/>
@@ -201,8 +201,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -230,6 +230,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -237,8 +282,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,98 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -361,7 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,19 +376,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,43 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,134 +560,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -594,74 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,32 +650,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,31 +690,31 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
@@ -780,147 +723,137 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,8 +1206,8 @@
   <sheetPr/>
   <dimension ref="A1:EJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I3" sqref="$A3:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="EG14" sqref="EG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
@@ -1406,611 +1339,611 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="5" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="5" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="5" t="s">
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
       <c r="AH1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
-      <c r="CH1" s="6"/>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="6"/>
-      <c r="CM1" s="6"/>
-      <c r="CN1" s="6"/>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
-      <c r="CR1" s="6"/>
-      <c r="CS1" s="6"/>
-      <c r="CT1" s="6"/>
-      <c r="CU1" s="6"/>
-      <c r="CV1" s="6"/>
-      <c r="CW1" s="6"/>
-      <c r="CX1" s="6"/>
-      <c r="CY1" s="6"/>
-      <c r="CZ1" s="6"/>
-      <c r="DA1" s="9"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="5"/>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="5"/>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="5"/>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="5"/>
+      <c r="CC1" s="5"/>
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CL1" s="5"/>
+      <c r="CM1" s="5"/>
+      <c r="CN1" s="5"/>
+      <c r="CO1" s="5"/>
+      <c r="CP1" s="5"/>
+      <c r="CQ1" s="5"/>
+      <c r="CR1" s="5"/>
+      <c r="CS1" s="5"/>
+      <c r="CT1" s="5"/>
+      <c r="CU1" s="5"/>
+      <c r="CV1" s="5"/>
+      <c r="CW1" s="5"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
       <c r="DB1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="DC1" s="6"/>
-      <c r="DD1" s="6"/>
-      <c r="DE1" s="6"/>
-      <c r="DF1" s="6"/>
-      <c r="DG1" s="6"/>
-      <c r="DH1" s="6"/>
-      <c r="DI1" s="6"/>
-      <c r="DJ1" s="6"/>
-      <c r="DK1" s="6"/>
-      <c r="DL1" s="6"/>
-      <c r="DM1" s="6"/>
-      <c r="DN1" s="6"/>
-      <c r="DO1" s="6"/>
-      <c r="DP1" s="6"/>
-      <c r="DQ1" s="6"/>
-      <c r="DR1" s="6"/>
-      <c r="DS1" s="6"/>
-      <c r="DT1" s="6"/>
-      <c r="DU1" s="6"/>
-      <c r="DV1" s="6"/>
-      <c r="DW1" s="6"/>
-      <c r="DX1" s="6"/>
-      <c r="DY1" s="6"/>
-      <c r="DZ1" s="6"/>
-      <c r="EA1" s="6"/>
-      <c r="EB1" s="6"/>
-      <c r="EC1" s="6"/>
-      <c r="ED1" s="6"/>
-      <c r="EE1" s="6"/>
-      <c r="EF1" s="6"/>
-      <c r="EG1" s="6"/>
-      <c r="EH1" s="6"/>
-      <c r="EI1" s="6"/>
-      <c r="EJ1" s="9"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
+      <c r="DF1" s="5"/>
+      <c r="DG1" s="5"/>
+      <c r="DH1" s="5"/>
+      <c r="DI1" s="5"/>
+      <c r="DJ1" s="5"/>
+      <c r="DK1" s="5"/>
+      <c r="DL1" s="5"/>
+      <c r="DM1" s="5"/>
+      <c r="DN1" s="5"/>
+      <c r="DO1" s="5"/>
+      <c r="DP1" s="5"/>
+      <c r="DQ1" s="5"/>
+      <c r="DR1" s="5"/>
+      <c r="DS1" s="5"/>
+      <c r="DT1" s="5"/>
+      <c r="DU1" s="5"/>
+      <c r="DV1" s="5"/>
+      <c r="DW1" s="5"/>
+      <c r="DX1" s="5"/>
+      <c r="DY1" s="5"/>
+      <c r="DZ1" s="5"/>
+      <c r="EA1" s="5"/>
+      <c r="EB1" s="5"/>
+      <c r="EC1" s="5"/>
+      <c r="ED1" s="5"/>
+      <c r="EE1" s="5"/>
+      <c r="EF1" s="5"/>
+      <c r="EG1" s="5"/>
+      <c r="EH1" s="5"/>
+      <c r="EI1" s="5"/>
+      <c r="EJ1" s="5"/>
     </row>
     <row r="2" spans="1:140">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AH2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="11" t="s">
+      <c r="AP2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AT2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AU2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AV2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AW2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="11" t="s">
+      <c r="AX2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="12" t="s">
+      <c r="AY2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AZ2" s="12" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BA2" s="12" t="s">
+      <c r="BA2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BB2" s="12" t="s">
+      <c r="BB2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BC2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BD2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BE2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BF2" s="11" t="s">
+      <c r="BF2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="12" t="s">
+      <c r="BG2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BH2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BI2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BJ2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BK2" s="12" t="s">
+      <c r="BK2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BL2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BM2" s="12" t="s">
+      <c r="BM2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BN2" s="11" t="s">
+      <c r="BN2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BO2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BP2" s="12" t="s">
+      <c r="BP2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BQ2" s="12" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BR2" s="12" t="s">
+      <c r="BR2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BS2" s="12" t="s">
+      <c r="BS2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BT2" s="12" t="s">
+      <c r="BT2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BU2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BV2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BW2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BX2" s="12" t="s">
+      <c r="BX2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BY2" s="12" t="s">
+      <c r="BY2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BZ2" s="12" t="s">
+      <c r="BZ2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CA2" s="12" t="s">
+      <c r="CA2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CB2" s="12" t="s">
+      <c r="CB2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="CC2" s="12" t="s">
+      <c r="CC2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CD2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="CE2" s="12" t="s">
+      <c r="CE2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="CF2" s="12" t="s">
+      <c r="CF2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="CG2" s="12" t="s">
+      <c r="CG2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CH2" s="12" t="s">
+      <c r="CH2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CI2" s="12" t="s">
+      <c r="CI2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CJ2" s="12" t="s">
+      <c r="CJ2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="CK2" s="12" t="s">
+      <c r="CK2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CL2" s="11" t="s">
+      <c r="CL2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="CM2" s="12" t="s">
+      <c r="CM2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="CN2" s="12" t="s">
+      <c r="CN2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="CO2" s="12" t="s">
+      <c r="CO2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CP2" s="12" t="s">
+      <c r="CP2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CQ2" s="12" t="s">
+      <c r="CQ2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CR2" s="12" t="s">
+      <c r="CR2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="CS2" s="12" t="s">
+      <c r="CS2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="CT2" s="11" t="s">
+      <c r="CT2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="CU2" s="12" t="s">
+      <c r="CU2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="CV2" s="12" t="s">
+      <c r="CV2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="CW2" s="12" t="s">
+      <c r="CW2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="CX2" s="12" t="s">
+      <c r="CX2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="CY2" s="12" t="s">
+      <c r="CY2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="CZ2" s="12" t="s">
+      <c r="CZ2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="DA2" s="12" t="s">
+      <c r="DA2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="DB2" s="12" t="s">
+      <c r="DB2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="DC2" s="12" t="s">
+      <c r="DC2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="DD2" s="12" t="s">
+      <c r="DD2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="DE2" s="12" t="s">
+      <c r="DE2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="DF2" s="12" t="s">
+      <c r="DF2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DG2" s="12" t="s">
+      <c r="DG2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="DH2" s="12" t="s">
+      <c r="DH2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="DI2" s="12" t="s">
+      <c r="DI2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="DJ2" s="12" t="s">
+      <c r="DJ2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="DK2" s="12" t="s">
+      <c r="DK2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="DL2" s="12" t="s">
+      <c r="DL2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="DM2" s="12" t="s">
+      <c r="DM2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DN2" s="12" t="s">
+      <c r="DN2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="DO2" s="12" t="s">
+      <c r="DO2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="DP2" s="12" t="s">
+      <c r="DP2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="DQ2" s="12" t="s">
+      <c r="DQ2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="DR2" s="12" t="s">
+      <c r="DR2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="DS2" s="12" t="s">
+      <c r="DS2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="DT2" s="12" t="s">
+      <c r="DT2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="DU2" s="12" t="s">
+      <c r="DU2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="DV2" s="12" t="s">
+      <c r="DV2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="DW2" s="12" t="s">
+      <c r="DW2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="DX2" s="12" t="s">
+      <c r="DX2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="DY2" s="12" t="s">
+      <c r="DY2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="DZ2" s="12" t="s">
+      <c r="DZ2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="EA2" s="12" t="s">
+      <c r="EA2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="EB2" s="12" t="s">
+      <c r="EB2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="EC2" s="12" t="s">
+      <c r="EC2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="ED2" s="12" t="s">
+      <c r="ED2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="EE2" s="12" t="s">
+      <c r="EE2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="EF2" s="12" t="s">
+      <c r="EF2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="EG2" s="12" t="s">
+      <c r="EG2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="EH2" s="12" t="s">
+      <c r="EH2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="EI2" s="12" t="s">
+      <c r="EI2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="EJ2" s="12" t="s">
+      <c r="EJ2" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="15:20">
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="13:20">
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="13:20">
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
